--- a/report/by_model_by_ethics.xlsx
+++ b/report/by_model_by_ethics.xlsx
@@ -486,19 +486,19 @@
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>Runs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_hard_set_acc</t>
+          <t>Commonsense Hard</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cs_test_set_acc</t>
+          <t>Commmonsense Test</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
@@ -572,22 +572,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4570920489452504</v>
+        <v>0.4727724467005048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1654331198179514</v>
+        <v>0.1474555433184346</v>
       </c>
       <c r="G4" t="n">
         <v>0.5554250478744507</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5744739627396619</v>
+        <v>0.5698455231530326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07882444363039344</v>
+        <v>0.07273474723528456</v>
       </c>
       <c r="J4" t="n">
         <v>0.736579418182373</v>
@@ -600,22 +600,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5201895899242825</v>
+        <v>0.522773265838623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01413715121128083</v>
+        <v>0.02281232398953085</v>
       </c>
       <c r="G5" t="n">
         <v>0.5539613366127014</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5566812952359518</v>
+        <v>0.5828947765486581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06708983768162292</v>
+        <v>0.08839761624623596</v>
       </c>
       <c r="J5" t="n">
         <v>0.7173922657966614</v>
@@ -634,22 +634,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5354980346949204</v>
+        <v>0.5385255305855362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03650718205723658</v>
+        <v>0.03217685584349202</v>
       </c>
       <c r="G6" t="n">
         <v>0.6184999942779541</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6128541788329249</v>
+        <v>0.6249056083184702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1178258722889143</v>
+        <v>0.1139576552294479</v>
       </c>
       <c r="J6" t="n">
         <v>0.8542667627334595</v>
@@ -662,22 +662,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5273622737990485</v>
+        <v>0.5267253423991957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02712151318055976</v>
+        <v>0.02993335022736049</v>
       </c>
       <c r="G7" t="n">
         <v>0.5882715582847595</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5987710974834584</v>
+        <v>0.599385247418755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1037581700371862</v>
+        <v>0.1036937401225901</v>
       </c>
       <c r="J7" t="n">
         <v>0.7927094101905823</v>
@@ -696,22 +696,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5666081213951111</v>
+        <v>0.6123637304856226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09967305776624562</v>
+        <v>0.1096252199822878</v>
       </c>
       <c r="G8" t="n">
         <v>0.7325142025947571</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6262490248680115</v>
+        <v>0.7134909354723417</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1885941905130976</v>
+        <v>0.2092314939925569</v>
       </c>
       <c r="J8" t="n">
         <v>0.9177249670028688</v>
@@ -761,19 +761,19 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5460339069366456</v>
+        <v>0.542946407198906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1032736489819718</v>
+        <v>0.1057657535800041</v>
       </c>
       <c r="G10" t="n">
         <v>0.765999972820282</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5626100271940231</v>
+        <v>0.5661612331867218</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1335234214636407</v>
+        <v>0.1320785380292009</v>
       </c>
       <c r="J10" t="n">
         <v>0.8986666798591614</v>
@@ -786,22 +786,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5596145614981651</v>
+        <v>0.5951110819975535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153972657207481</v>
+        <v>0.1673360419811515</v>
       </c>
       <c r="G11" t="n">
         <v>0.7883332371711731</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6141557916998863</v>
+        <v>0.6410370369752248</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2067302174150867</v>
+        <v>0.2444799912128109</v>
       </c>
       <c r="J11" t="n">
         <v>0.9233332872390748</v>

--- a/report/by_model_by_ethics.xlsx
+++ b/report/by_model_by_ethics.xlsx
@@ -498,7 +498,7 @@
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Commmonsense Test</t>
+          <t>Commonsense Test</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
